--- a/data/Pucón.xlsx
+++ b/data/Pucón.xlsx
@@ -980,7 +980,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">

--- a/data/Pucón.xlsx
+++ b/data/Pucón.xlsx
@@ -5239,7 +5239,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">

--- a/data/Pucón.xlsx
+++ b/data/Pucón.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">

--- a/data/Pucón.xlsx
+++ b/data/Pucón.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Pucón.xlsx
+++ b/data/Pucón.xlsx
@@ -5095,7 +5095,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>GERMAN MALIG LANTZ</t>
+          <t>Sociedad comercial agricola y forestal Quimeyco Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
